--- a/lib/SAILFormat.xlsx
+++ b/lib/SAILFormat.xlsx
@@ -1,22 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ayash\PycharmProjects\SAILproj\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ayash\Sailproj\SailProjGit\SAILcode\lib\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A881F98B-E958-4F81-A1F4-F48DD21EEA9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{117AEB41-A559-4C66-B0C6-205610A090CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{93DD1A3E-79F5-40A0-9DE4-B4C0229D9C52}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{93DD1A3E-79F5-40A0-9DE4-B4C0229D9C52}"/>
   </bookViews>
   <sheets>
     <sheet name="Format" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -37,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="58">
   <si>
     <t>Graph #</t>
   </si>
@@ -162,7 +161,55 @@
     <t>numpoints</t>
   </si>
   <si>
-    <t>House keeping</t>
+    <t>Instruments</t>
+  </si>
+  <si>
+    <t>Housekeeping</t>
+  </si>
+  <si>
+    <t>Byte</t>
+  </si>
+  <si>
+    <t>Temp1</t>
+  </si>
+  <si>
+    <t>Temp2</t>
+  </si>
+  <si>
+    <t>Temp3</t>
+  </si>
+  <si>
+    <t>Int. Temp</t>
+  </si>
+  <si>
+    <t>V Bat</t>
+  </si>
+  <si>
+    <t>-12 V</t>
+  </si>
+  <si>
+    <t>+12 V</t>
+  </si>
+  <si>
+    <t>+5 V</t>
+  </si>
+  <si>
+    <t>Bat Mon</t>
+  </si>
+  <si>
+    <t>+3.3 V</t>
+  </si>
+  <si>
+    <t>Dig. Temp</t>
+  </si>
+  <si>
+    <t>Display Truth Table</t>
+  </si>
+  <si>
+    <t>[optional]</t>
+  </si>
+  <si>
+    <t>House keeping:</t>
   </si>
 </sst>
 </file>
@@ -264,7 +311,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="41">
+  <borders count="29">
     <border>
       <left/>
       <right/>
@@ -628,79 +675,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
@@ -708,99 +682,6 @@
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
       <bottom style="medium">
         <color indexed="64"/>
       </bottom>
@@ -810,7 +691,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="89">
+  <cellXfs count="90">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -974,22 +855,55 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1012,36 +926,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="33" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="37" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="40" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1368,18 +1252,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7758D255-7225-412E-BCCB-5D6A66A51808}">
-  <dimension ref="A2:O33"/>
+  <dimension ref="A2:V35"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C32" sqref="C32"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5.85546875" customWidth="1"/>
     <col min="2" max="2" width="18.28515625" customWidth="1"/>
-    <col min="3" max="13" width="16.7109375" customWidth="1"/>
-    <col min="14" max="15" width="15.7109375" customWidth="1"/>
+    <col min="3" max="11" width="16.7109375" customWidth="1"/>
+    <col min="12" max="22" width="15.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:15" x14ac:dyDescent="0.25">
@@ -1387,7 +1271,7 @@
         <v>19</v>
       </c>
       <c r="C2">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D2">
         <v>6</v>
@@ -1398,128 +1282,80 @@
         <v>20</v>
       </c>
       <c r="C3">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D3">
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>41</v>
+        <v>57</v>
       </c>
       <c r="C4">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D4">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="C5" s="31" t="s">
+    <row r="6" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="7" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="D7" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="E5" s="5" t="s">
+      <c r="E7" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="F5" s="12" t="s">
+      <c r="F7" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="G5" s="70" t="s">
+      <c r="G7" s="85" t="s">
         <v>9</v>
       </c>
-      <c r="H5" s="70"/>
-      <c r="I5" s="40" t="s">
+      <c r="H7" s="85"/>
+      <c r="I7" s="40" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B6" s="67" t="s">
+    <row r="8" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B8" s="82" t="s">
         <v>21</v>
       </c>
-      <c r="C6" s="14" t="s">
+      <c r="C8" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="13" t="s">
+      <c r="D8" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="E6" s="13" t="s">
+      <c r="E8" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="F6" s="13">
+      <c r="F8" s="13">
         <v>25000</v>
       </c>
-      <c r="G6" s="17">
+      <c r="G8" s="17">
         <f>-2^19</f>
         <v>-524288</v>
       </c>
-      <c r="H6" s="17">
+      <c r="H8" s="17">
         <f>2^19</f>
         <v>524288</v>
       </c>
-      <c r="I6" s="40">
+      <c r="I8" s="40">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B7" s="67"/>
-      <c r="C7" s="14" t="s">
+    <row r="9" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B9" s="82"/>
+      <c r="C9" s="14" t="s">
         <v>12</v>
-      </c>
-      <c r="D7" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="E7" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="F7" s="13">
-        <v>25000</v>
-      </c>
-      <c r="G7" s="17">
-        <f>-2^19</f>
-        <v>-524288</v>
-      </c>
-      <c r="H7" s="17">
-        <f>2^19</f>
-        <v>524288</v>
-      </c>
-      <c r="I7" s="40">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B8" s="67"/>
-      <c r="C8" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="D8" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="E8" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="F8" s="13">
-        <v>25000</v>
-      </c>
-      <c r="G8" s="17">
-        <f>-2^17</f>
-        <v>-131072</v>
-      </c>
-      <c r="H8" s="17">
-        <f>2^17</f>
-        <v>131072</v>
-      </c>
-      <c r="I8" s="40">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B9" s="67"/>
-      <c r="C9" s="14" t="s">
-        <v>17</v>
       </c>
       <c r="D9" s="13" t="s">
         <v>14</v>
@@ -1528,7 +1364,7 @@
         <v>15</v>
       </c>
       <c r="F9" s="13">
-        <v>12500</v>
+        <v>25000</v>
       </c>
       <c r="G9" s="17">
         <f>-2^19</f>
@@ -1539,13 +1375,13 @@
         <v>524288</v>
       </c>
       <c r="I9" s="40">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B10" s="67"/>
+      <c r="B10" s="82"/>
       <c r="C10" s="14" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D10" s="13" t="s">
         <v>14</v>
@@ -1557,675 +1393,644 @@
         <v>25000</v>
       </c>
       <c r="G10" s="17">
+        <f>-2^17</f>
+        <v>-131072</v>
+      </c>
+      <c r="H10" s="17">
+        <f>2^17</f>
+        <v>131072</v>
+      </c>
+      <c r="I10" s="40">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B11" s="82"/>
+      <c r="C11" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="D11" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="E11" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="F11" s="13">
+        <v>12500</v>
+      </c>
+      <c r="G11" s="17">
+        <f>-2^19</f>
+        <v>-524288</v>
+      </c>
+      <c r="H11" s="17">
+        <f>2^19</f>
+        <v>524288</v>
+      </c>
+      <c r="I11" s="40">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B12" s="82"/>
+      <c r="C12" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="E12" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="F12" s="13">
+        <v>25000</v>
+      </c>
+      <c r="G12" s="17">
         <f>-(2^23)</f>
         <v>-8388608</v>
       </c>
-      <c r="H10" s="17">
+      <c r="H12" s="17">
         <f>2^23</f>
         <v>8388608</v>
       </c>
-      <c r="I10" s="40">
+      <c r="I12" s="40">
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="67"/>
-      <c r="C11" s="16" t="s">
+    <row r="13" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="82"/>
+      <c r="C13" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="D11" s="15" t="s">
+      <c r="D13" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="E11" s="15" t="s">
+      <c r="E13" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="F11" s="15">
+      <c r="F13" s="15">
         <v>12500</v>
       </c>
-      <c r="G11" s="18">
+      <c r="G13" s="18">
         <f>-(2^10)</f>
         <v>-1024</v>
       </c>
-      <c r="H11" s="18">
+      <c r="H13" s="18">
         <f>2^12</f>
         <v>4096</v>
       </c>
-      <c r="I11" s="40">
+      <c r="I13" s="40">
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="13" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C13" s="33" t="s">
+    <row r="14" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="15" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B15" t="s">
+        <v>41</v>
+      </c>
+      <c r="C15" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="D13" s="34" t="s">
+      <c r="D15" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="E13" s="35" t="s">
+      <c r="E15" s="35" t="s">
         <v>34</v>
       </c>
-      <c r="F13" s="35" t="s">
+      <c r="F15" s="35" t="s">
         <v>26</v>
       </c>
-      <c r="G13" s="36" t="s">
-        <v>1</v>
-      </c>
-      <c r="H13" s="36" t="s">
+      <c r="G15" s="36" t="s">
+        <v>1</v>
+      </c>
+      <c r="H15" s="36" t="s">
         <v>6</v>
       </c>
-      <c r="I13" s="36" t="s">
+      <c r="I15" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="J13" s="37" t="s">
+      <c r="J15" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="K13" s="37" t="s">
+      <c r="K15" s="37" t="s">
         <v>6</v>
       </c>
-      <c r="L13" s="37" t="s">
+      <c r="L15" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="M13" s="38" t="s">
+      <c r="M15" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="N13" s="39" t="s">
+      <c r="N15" s="39" t="s">
         <v>6</v>
       </c>
-      <c r="O13" s="38" t="s">
+      <c r="O15" s="38" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B14" s="71" t="s">
+    <row r="16" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B16" s="86" t="s">
         <v>10</v>
       </c>
-      <c r="C14" s="28">
+      <c r="C16" s="28">
         <v>4</v>
       </c>
-      <c r="D14" s="20" t="s">
+      <c r="D16" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="E14" s="25" t="s">
+      <c r="E16" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="F14" s="25">
-        <v>1</v>
-      </c>
-      <c r="G14" s="21">
+      <c r="F16" s="25">
+        <v>1</v>
+      </c>
+      <c r="G16" s="21">
         <v>12</v>
       </c>
-      <c r="H14" s="21">
-        <v>255</v>
-      </c>
-      <c r="I14" s="21">
+      <c r="H16" s="21">
+        <v>255</v>
+      </c>
+      <c r="I16" s="21">
         <v>16</v>
       </c>
-      <c r="J14" s="22">
+      <c r="J16" s="22">
         <v>13</v>
       </c>
-      <c r="K14" s="22">
-        <v>255</v>
-      </c>
-      <c r="L14" s="22">
+      <c r="K16" s="22">
+        <v>255</v>
+      </c>
+      <c r="L16" s="22">
         <v>8</v>
       </c>
-      <c r="M14" s="23">
+      <c r="M16" s="23">
         <v>14</v>
       </c>
-      <c r="N14" s="23">
-        <v>255</v>
-      </c>
-      <c r="O14" s="24">
+      <c r="N16" s="23">
+        <v>255</v>
+      </c>
+      <c r="O16" s="24">
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B15" s="71"/>
-      <c r="C15" s="29">
+    <row r="17" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="B17" s="86"/>
+      <c r="C17" s="29">
         <v>4</v>
       </c>
-      <c r="D15" s="1" t="s">
+      <c r="D17" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="E15" s="26" t="s">
+      <c r="E17" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="F15" s="26">
-        <v>1</v>
-      </c>
-      <c r="G15" s="2">
+      <c r="F17" s="26">
+        <v>1</v>
+      </c>
+      <c r="G17" s="2">
         <v>15</v>
       </c>
-      <c r="H15" s="2">
-        <v>255</v>
-      </c>
-      <c r="I15" s="2">
+      <c r="H17" s="2">
+        <v>255</v>
+      </c>
+      <c r="I17" s="2">
         <v>16</v>
       </c>
-      <c r="J15" s="3">
+      <c r="J17" s="3">
         <v>16</v>
       </c>
-      <c r="K15" s="3">
-        <v>255</v>
-      </c>
-      <c r="L15" s="3">
+      <c r="K17" s="3">
+        <v>255</v>
+      </c>
+      <c r="L17" s="3">
         <v>8</v>
       </c>
-      <c r="M15" s="4">
+      <c r="M17" s="4">
         <v>17</v>
       </c>
-      <c r="N15" s="4">
-        <v>255</v>
-      </c>
-      <c r="O15" s="6">
+      <c r="N17" s="4">
+        <v>255</v>
+      </c>
+      <c r="O17" s="6">
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="71"/>
-      <c r="C16" s="30">
+    <row r="18" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B18" s="86"/>
+      <c r="C18" s="30">
         <v>4</v>
       </c>
-      <c r="D16" s="7" t="s">
+      <c r="D18" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="E16" s="27" t="s">
+      <c r="E18" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="F16" s="27">
-        <v>1</v>
-      </c>
-      <c r="G16" s="8">
+      <c r="F18" s="27">
+        <v>1</v>
+      </c>
+      <c r="G18" s="8">
         <v>18</v>
       </c>
-      <c r="H16" s="8">
-        <v>255</v>
-      </c>
-      <c r="I16" s="8">
+      <c r="H18" s="8">
+        <v>255</v>
+      </c>
+      <c r="I18" s="8">
         <v>16</v>
       </c>
-      <c r="J16" s="9">
+      <c r="J18" s="9">
         <v>19</v>
       </c>
-      <c r="K16" s="9">
-        <v>255</v>
-      </c>
-      <c r="L16" s="9">
+      <c r="K18" s="9">
+        <v>255</v>
+      </c>
+      <c r="L18" s="9">
         <v>8</v>
       </c>
-      <c r="M16" s="10">
+      <c r="M18" s="10">
         <v>20</v>
       </c>
-      <c r="N16" s="10">
-        <v>255</v>
-      </c>
-      <c r="O16" s="11">
+      <c r="N18" s="10">
+        <v>255</v>
+      </c>
+      <c r="O18" s="11">
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B17" s="71" t="s">
+    <row r="19" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="B19" s="86" t="s">
         <v>32</v>
       </c>
-      <c r="C17" s="28">
+      <c r="C19" s="28">
         <v>0</v>
       </c>
-      <c r="D17" s="20" t="s">
+      <c r="D19" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="E17" s="25" t="s">
+      <c r="E19" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="F17" s="25">
-        <v>1</v>
-      </c>
-      <c r="G17" s="21">
+      <c r="F19" s="25">
+        <v>1</v>
+      </c>
+      <c r="G19" s="21">
         <v>32</v>
       </c>
-      <c r="H17" s="21">
-        <v>255</v>
-      </c>
-      <c r="I17" s="21">
+      <c r="H19" s="21">
+        <v>255</v>
+      </c>
+      <c r="I19" s="21">
         <v>12</v>
       </c>
-      <c r="J17" s="22">
+      <c r="J19" s="22">
         <v>33</v>
       </c>
-      <c r="K17" s="22">
-        <v>255</v>
-      </c>
-      <c r="L17" s="22">
+      <c r="K19" s="22">
+        <v>255</v>
+      </c>
+      <c r="L19" s="22">
         <v>4</v>
       </c>
-      <c r="M17" s="23">
+      <c r="M19" s="23">
         <v>38</v>
       </c>
-      <c r="N17" s="23">
+      <c r="N19" s="23">
         <v>240</v>
       </c>
-      <c r="O17" s="24">
+      <c r="O19" s="24">
         <v>-4</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B18" s="71"/>
-      <c r="C18" s="29">
+    <row r="20" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="B20" s="86"/>
+      <c r="C20" s="29">
         <v>0</v>
       </c>
-      <c r="D18" s="1" t="s">
+      <c r="D20" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="E18" s="26" t="s">
+      <c r="E20" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="F18" s="26">
-        <v>1</v>
-      </c>
-      <c r="G18" s="2">
+      <c r="F20" s="26">
+        <v>1</v>
+      </c>
+      <c r="G20" s="2">
         <v>34</v>
       </c>
-      <c r="H18" s="2">
-        <v>255</v>
-      </c>
-      <c r="I18" s="2">
+      <c r="H20" s="2">
+        <v>255</v>
+      </c>
+      <c r="I20" s="2">
         <v>12</v>
       </c>
-      <c r="J18" s="3">
+      <c r="J20" s="3">
         <v>35</v>
       </c>
-      <c r="K18" s="3">
-        <v>255</v>
-      </c>
-      <c r="L18" s="3">
+      <c r="K20" s="3">
+        <v>255</v>
+      </c>
+      <c r="L20" s="3">
         <v>4</v>
       </c>
-      <c r="M18" s="4">
+      <c r="M20" s="4">
         <v>38</v>
       </c>
-      <c r="N18" s="4">
+      <c r="N20" s="4">
         <v>15</v>
       </c>
-      <c r="O18" s="6">
+      <c r="O20" s="6">
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="71"/>
-      <c r="C19" s="46">
-        <v>1</v>
-      </c>
-      <c r="D19" s="47" t="s">
+    <row r="21" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B21" s="86"/>
+      <c r="C21" s="46">
+        <v>1</v>
+      </c>
+      <c r="D21" s="47" t="s">
         <v>25</v>
       </c>
-      <c r="E19" s="48" t="s">
+      <c r="E21" s="48" t="s">
         <v>22</v>
       </c>
-      <c r="F19" s="48">
-        <v>1</v>
-      </c>
-      <c r="G19" s="49">
+      <c r="F21" s="48">
+        <v>1</v>
+      </c>
+      <c r="G21" s="49">
         <v>36</v>
       </c>
-      <c r="H19" s="49">
-        <v>255</v>
-      </c>
-      <c r="I19" s="49">
+      <c r="H21" s="49">
+        <v>255</v>
+      </c>
+      <c r="I21" s="49">
         <v>12</v>
       </c>
-      <c r="J19" s="50">
+      <c r="J21" s="50">
         <v>37</v>
       </c>
-      <c r="K19" s="50">
-        <v>255</v>
-      </c>
-      <c r="L19" s="50">
+      <c r="K21" s="50">
+        <v>255</v>
+      </c>
+      <c r="L21" s="50">
         <v>4</v>
       </c>
-      <c r="M19" s="51">
+      <c r="M21" s="51">
         <v>39</v>
       </c>
-      <c r="N19" s="51">
+      <c r="N21" s="51">
         <v>240</v>
       </c>
-      <c r="O19" s="52">
+      <c r="O21" s="52">
         <v>-4</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B20" s="72" t="s">
+    <row r="22" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="B22" s="87" t="s">
         <v>33</v>
       </c>
-      <c r="C20" s="28">
+      <c r="C22" s="28">
         <v>2</v>
       </c>
-      <c r="D20" s="20" t="s">
+      <c r="D22" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="E20" s="25" t="s">
+      <c r="E22" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="F20" s="25">
-        <v>1</v>
-      </c>
-      <c r="G20" s="21">
+      <c r="F22" s="25">
+        <v>1</v>
+      </c>
+      <c r="G22" s="21">
         <v>52</v>
       </c>
-      <c r="H20" s="21">
-        <v>255</v>
-      </c>
-      <c r="I20" s="21">
+      <c r="H22" s="21">
+        <v>255</v>
+      </c>
+      <c r="I22" s="21">
         <v>10</v>
       </c>
-      <c r="J20" s="22">
+      <c r="J22" s="22">
         <v>53</v>
       </c>
-      <c r="K20" s="22">
-        <v>255</v>
-      </c>
-      <c r="L20" s="22">
+      <c r="K22" s="22">
+        <v>255</v>
+      </c>
+      <c r="L22" s="22">
         <v>2</v>
       </c>
-      <c r="M20" s="23">
+      <c r="M22" s="23">
         <v>58</v>
       </c>
-      <c r="N20" s="23">
+      <c r="N22" s="23">
         <v>192</v>
       </c>
-      <c r="O20" s="24">
+      <c r="O22" s="24">
         <v>-6</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B21" s="73"/>
-      <c r="C21" s="29">
+    <row r="23" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="B23" s="88"/>
+      <c r="C23" s="29">
         <v>2</v>
       </c>
-      <c r="D21" s="1" t="s">
+      <c r="D23" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="E21" s="26" t="s">
+      <c r="E23" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="F21" s="26">
-        <v>1</v>
-      </c>
-      <c r="G21" s="2">
+      <c r="F23" s="26">
+        <v>1</v>
+      </c>
+      <c r="G23" s="2">
         <v>54</v>
       </c>
-      <c r="H21" s="2">
-        <v>255</v>
-      </c>
-      <c r="I21" s="2">
+      <c r="H23" s="2">
+        <v>255</v>
+      </c>
+      <c r="I23" s="2">
         <v>10</v>
       </c>
-      <c r="J21" s="3">
+      <c r="J23" s="3">
         <v>55</v>
       </c>
-      <c r="K21" s="3">
-        <v>255</v>
-      </c>
-      <c r="L21" s="3">
+      <c r="K23" s="3">
+        <v>255</v>
+      </c>
+      <c r="L23" s="3">
         <v>2</v>
       </c>
-      <c r="M21" s="4">
+      <c r="M23" s="4">
         <v>58</v>
       </c>
-      <c r="N21" s="4">
+      <c r="N23" s="4">
         <v>48</v>
       </c>
-      <c r="O21" s="6">
+      <c r="O23" s="6">
         <v>-4</v>
       </c>
     </row>
-    <row r="22" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="73"/>
-      <c r="C22" s="30">
+    <row r="24" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B24" s="88"/>
+      <c r="C24" s="30">
         <v>2</v>
       </c>
-      <c r="D22" s="7" t="s">
+      <c r="D24" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="E22" s="27" t="s">
+      <c r="E24" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="F22" s="27">
-        <v>1</v>
-      </c>
-      <c r="G22" s="8">
+      <c r="F24" s="27">
+        <v>1</v>
+      </c>
+      <c r="G24" s="8">
         <v>56</v>
       </c>
-      <c r="H22" s="8">
-        <v>255</v>
-      </c>
-      <c r="I22" s="8">
+      <c r="H24" s="8">
+        <v>255</v>
+      </c>
+      <c r="I24" s="8">
         <v>10</v>
       </c>
-      <c r="J22" s="9">
+      <c r="J24" s="9">
         <v>57</v>
       </c>
-      <c r="K22" s="9">
-        <v>255</v>
-      </c>
-      <c r="L22" s="9">
+      <c r="K24" s="9">
+        <v>255</v>
+      </c>
+      <c r="L24" s="9">
         <v>2</v>
       </c>
-      <c r="M22" s="10">
+      <c r="M24" s="10">
         <v>58</v>
       </c>
-      <c r="N22" s="10">
+      <c r="N24" s="10">
         <v>12</v>
       </c>
-      <c r="O22" s="11">
+      <c r="O24" s="11">
         <v>-2</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B23" s="74"/>
-      <c r="C23" s="28">
+    <row r="25" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="B25" s="89"/>
+      <c r="C25" s="28">
         <v>3</v>
       </c>
-      <c r="D23" s="20" t="s">
+      <c r="D25" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="E23" s="25" t="s">
+      <c r="E25" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="F23" s="25">
-        <v>1</v>
-      </c>
-      <c r="G23" s="21">
+      <c r="F25" s="25">
+        <v>1</v>
+      </c>
+      <c r="G25" s="21">
         <v>59</v>
       </c>
-      <c r="H23" s="21">
-        <v>255</v>
-      </c>
-      <c r="I23" s="21">
+      <c r="H25" s="21">
+        <v>255</v>
+      </c>
+      <c r="I25" s="21">
         <v>12</v>
       </c>
-      <c r="J23" s="22">
+      <c r="J25" s="22">
         <v>60</v>
       </c>
-      <c r="K23" s="22">
-        <v>255</v>
-      </c>
-      <c r="L23" s="22">
+      <c r="K25" s="22">
+        <v>255</v>
+      </c>
+      <c r="L25" s="22">
         <v>4</v>
       </c>
-      <c r="M23" s="23">
+      <c r="M25" s="23">
         <v>63</v>
       </c>
-      <c r="N23" s="23">
+      <c r="N25" s="23">
         <v>240</v>
       </c>
-      <c r="O23" s="24">
+      <c r="O25" s="24">
         <v>-4</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A24" s="19"/>
-      <c r="B24" s="74"/>
-      <c r="C24" s="29">
+    <row r="26" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A26" s="19"/>
+      <c r="B26" s="89"/>
+      <c r="C26" s="29">
         <v>3</v>
       </c>
-      <c r="D24" s="1" t="s">
+      <c r="D26" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="E24" s="26" t="s">
+      <c r="E26" s="26" t="s">
         <v>28</v>
       </c>
-      <c r="F24" s="26">
-        <v>1</v>
-      </c>
-      <c r="G24" s="2">
+      <c r="F26" s="26">
+        <v>1</v>
+      </c>
+      <c r="G26" s="2">
         <v>61</v>
       </c>
-      <c r="H24" s="2">
-        <v>255</v>
-      </c>
-      <c r="I24" s="2">
+      <c r="H26" s="2">
+        <v>255</v>
+      </c>
+      <c r="I26" s="2">
         <v>12</v>
       </c>
-      <c r="J24" s="3">
+      <c r="J26" s="3">
         <v>62</v>
       </c>
-      <c r="K24" s="3">
-        <v>255</v>
-      </c>
-      <c r="L24" s="3">
+      <c r="K26" s="3">
+        <v>255</v>
+      </c>
+      <c r="L26" s="3">
         <v>4</v>
       </c>
-      <c r="M24" s="4">
+      <c r="M26" s="4">
         <v>63</v>
       </c>
-      <c r="N24" s="4">
+      <c r="N26" s="4">
         <v>15</v>
       </c>
-      <c r="O24" s="6">
+      <c r="O26" s="6">
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A25" s="19"/>
-      <c r="B25" s="69"/>
-      <c r="C25" s="29">
+    <row r="27" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A27" s="19"/>
+      <c r="B27" s="84"/>
+      <c r="C27" s="29">
         <v>3</v>
       </c>
-      <c r="D25" s="1" t="s">
+      <c r="D27" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="E25" s="26" t="s">
+      <c r="E27" s="26" t="s">
         <v>29</v>
       </c>
-      <c r="F25" s="26">
-        <v>1</v>
-      </c>
-      <c r="G25" s="2">
+      <c r="F27" s="26">
+        <v>1</v>
+      </c>
+      <c r="G27" s="2">
         <v>59</v>
       </c>
-      <c r="H25" s="2">
-        <v>255</v>
-      </c>
-      <c r="I25" s="2">
+      <c r="H27" s="2">
+        <v>255</v>
+      </c>
+      <c r="I27" s="2">
         <v>12</v>
       </c>
-      <c r="J25" s="3">
+      <c r="J27" s="3">
         <v>60</v>
       </c>
-      <c r="K25" s="3">
-        <v>255</v>
-      </c>
-      <c r="L25" s="3">
+      <c r="K27" s="3">
+        <v>255</v>
+      </c>
+      <c r="L27" s="3">
         <v>4</v>
       </c>
-      <c r="M25" s="4">
+      <c r="M27" s="4">
         <v>61</v>
-      </c>
-      <c r="N25" s="4">
-        <v>240</v>
-      </c>
-      <c r="O25" s="6">
-        <v>-4</v>
-      </c>
-    </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B26" s="68" t="s">
-        <v>18</v>
-      </c>
-      <c r="C26" s="53">
-        <v>5</v>
-      </c>
-      <c r="D26" s="41" t="s">
-        <v>23</v>
-      </c>
-      <c r="E26" s="42" t="s">
-        <v>30</v>
-      </c>
-      <c r="F26" s="42">
-        <v>0</v>
-      </c>
-      <c r="G26" s="43">
-        <v>78</v>
-      </c>
-      <c r="H26" s="43">
-        <v>255</v>
-      </c>
-      <c r="I26" s="43">
-        <v>4</v>
-      </c>
-      <c r="J26" s="44">
-        <v>-1</v>
-      </c>
-      <c r="K26" s="44">
-        <v>-1</v>
-      </c>
-      <c r="L26" s="44">
-        <v>-1</v>
-      </c>
-      <c r="M26" s="45">
-        <v>79</v>
-      </c>
-      <c r="N26" s="45">
-        <v>240</v>
-      </c>
-      <c r="O26" s="54">
-        <v>-4</v>
-      </c>
-    </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B27" s="69"/>
-      <c r="C27" s="29">
-        <v>5</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E27" s="26" t="s">
-        <v>31</v>
-      </c>
-      <c r="F27" s="26">
-        <v>0</v>
-      </c>
-      <c r="G27" s="2">
-        <v>78</v>
-      </c>
-      <c r="H27" s="2">
-        <v>255</v>
-      </c>
-      <c r="I27" s="2">
-        <v>4</v>
-      </c>
-      <c r="J27" s="3">
-        <v>-1</v>
-      </c>
-      <c r="K27" s="3">
-        <v>-1</v>
-      </c>
-      <c r="L27" s="3">
-        <v>-1</v>
-      </c>
-      <c r="M27" s="4">
-        <v>79</v>
       </c>
       <c r="N27" s="4">
         <v>240</v>
@@ -2234,153 +2039,220 @@
         <v>-4</v>
       </c>
     </row>
-    <row r="28" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="32"/>
-      <c r="C28" s="30">
+    <row r="28" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="B28" s="83" t="s">
+        <v>18</v>
+      </c>
+      <c r="C28" s="53">
+        <v>5</v>
+      </c>
+      <c r="D28" s="41" t="s">
+        <v>23</v>
+      </c>
+      <c r="E28" s="42" t="s">
+        <v>30</v>
+      </c>
+      <c r="F28" s="42">
+        <v>0</v>
+      </c>
+      <c r="G28" s="43">
+        <v>78</v>
+      </c>
+      <c r="H28" s="43">
+        <v>255</v>
+      </c>
+      <c r="I28" s="43">
+        <v>4</v>
+      </c>
+      <c r="J28" s="44">
+        <v>-1</v>
+      </c>
+      <c r="K28" s="44">
+        <v>-1</v>
+      </c>
+      <c r="L28" s="44">
+        <v>-1</v>
+      </c>
+      <c r="M28" s="45">
+        <v>79</v>
+      </c>
+      <c r="N28" s="45">
+        <v>240</v>
+      </c>
+      <c r="O28" s="54">
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="29" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="B29" s="84"/>
+      <c r="C29" s="29">
+        <v>5</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E29" s="26" t="s">
+        <v>31</v>
+      </c>
+      <c r="F29" s="26">
+        <v>0</v>
+      </c>
+      <c r="G29" s="2">
+        <v>78</v>
+      </c>
+      <c r="H29" s="2">
+        <v>255</v>
+      </c>
+      <c r="I29" s="2">
+        <v>4</v>
+      </c>
+      <c r="J29" s="3">
+        <v>-1</v>
+      </c>
+      <c r="K29" s="3">
+        <v>-1</v>
+      </c>
+      <c r="L29" s="3">
+        <v>-1</v>
+      </c>
+      <c r="M29" s="4">
+        <v>79</v>
+      </c>
+      <c r="N29" s="4">
+        <v>240</v>
+      </c>
+      <c r="O29" s="6">
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="30" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B30" s="32"/>
+      <c r="C30" s="30">
         <v>3</v>
       </c>
-      <c r="D28" s="7" t="s">
+      <c r="D30" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="E28" s="27" t="s">
+      <c r="E30" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="F28" s="27">
-        <v>1</v>
-      </c>
-      <c r="G28" s="8">
+      <c r="F30" s="27">
+        <v>1</v>
+      </c>
+      <c r="G30" s="8">
         <v>61</v>
       </c>
-      <c r="H28" s="8">
+      <c r="H30" s="8">
         <v>15</v>
       </c>
-      <c r="I28" s="8">
+      <c r="I30" s="8">
         <v>8</v>
       </c>
-      <c r="J28" s="9">
+      <c r="J30" s="9">
         <v>-1</v>
       </c>
-      <c r="K28" s="9">
+      <c r="K30" s="9">
         <v>-1</v>
       </c>
-      <c r="L28" s="9">
+      <c r="L30" s="9">
         <v>-1</v>
       </c>
-      <c r="M28" s="10">
+      <c r="M30" s="10">
         <v>62</v>
       </c>
-      <c r="N28" s="10">
-        <v>255</v>
-      </c>
-      <c r="O28" s="11">
+      <c r="N30" s="10">
+        <v>255</v>
+      </c>
+      <c r="O30" s="11">
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="30" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C30" s="35" t="s">
+    <row r="31" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="32" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="B32" t="s">
+        <v>42</v>
+      </c>
+      <c r="C32" s="69" t="s">
         <v>34</v>
       </c>
-      <c r="D30" s="61" t="s">
+      <c r="D32" s="70" t="s">
         <v>35</v>
       </c>
-      <c r="E30" s="75" t="s">
+      <c r="E32" s="70" t="s">
         <v>36</v>
       </c>
-      <c r="F30" s="79" t="s">
+      <c r="F32" s="70" t="s">
         <v>37</v>
       </c>
-      <c r="G30" s="86" t="s">
+      <c r="G32" s="70" t="s">
         <v>40</v>
       </c>
-      <c r="H30" s="82" t="s">
-        <v>1</v>
-      </c>
-      <c r="I30" s="62" t="s">
+      <c r="H32" s="71" t="s">
+        <v>43</v>
+      </c>
+      <c r="I32" s="71" t="s">
         <v>6</v>
       </c>
-      <c r="J30" s="63" t="s">
+      <c r="J32" s="72" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B31" s="64" t="s">
-        <v>10</v>
-      </c>
-      <c r="C31" s="25" t="s">
+      <c r="K32" s="76" t="s">
+        <v>55</v>
+      </c>
+      <c r="L32" s="61" t="s">
+        <v>44</v>
+      </c>
+      <c r="M32" s="62" t="s">
+        <v>45</v>
+      </c>
+      <c r="N32" s="62" t="s">
+        <v>46</v>
+      </c>
+      <c r="O32" s="62" t="s">
+        <v>47</v>
+      </c>
+      <c r="P32" s="62" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q32" s="63" t="s">
+        <v>49</v>
+      </c>
+      <c r="R32" s="63" t="s">
+        <v>50</v>
+      </c>
+      <c r="S32" s="63" t="s">
+        <v>51</v>
+      </c>
+      <c r="T32" s="63" t="s">
+        <v>53</v>
+      </c>
+      <c r="U32" s="77" t="s">
+        <v>52</v>
+      </c>
+      <c r="V32" s="64" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="33" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B33" s="59" t="s">
+        <v>12</v>
+      </c>
+      <c r="C33" s="73" t="s">
         <v>22</v>
       </c>
-      <c r="D31" s="28">
-        <v>18</v>
-      </c>
-      <c r="E31" s="76">
+      <c r="D33" s="68">
+        <v>135</v>
+      </c>
+      <c r="E33" s="68">
         <v>11</v>
       </c>
-      <c r="F31" s="80" t="s">
-        <v>38</v>
-      </c>
-      <c r="G31" s="87">
-        <v>25000</v>
-      </c>
-      <c r="H31" s="83">
-        <v>21</v>
-      </c>
-      <c r="I31" s="65">
-        <v>255</v>
-      </c>
-      <c r="J31" s="66">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B32" s="64" t="s">
-        <v>13</v>
-      </c>
-      <c r="C32" s="26" t="s">
-        <v>29</v>
-      </c>
-      <c r="D32" s="58">
-        <v>51</v>
-      </c>
-      <c r="E32" s="77">
-        <v>11</v>
-      </c>
-      <c r="F32" s="81" t="s">
-        <v>38</v>
-      </c>
-      <c r="G32" s="87">
-        <v>25000</v>
-      </c>
-      <c r="H32" s="84">
-        <v>63</v>
-      </c>
-      <c r="I32" s="59">
-        <v>255</v>
-      </c>
-      <c r="J32" s="60">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B33" s="64" t="s">
-        <v>12</v>
-      </c>
-      <c r="C33" s="27" t="s">
-        <v>22</v>
-      </c>
-      <c r="D33" s="57">
-        <v>135</v>
-      </c>
-      <c r="E33" s="78">
-        <v>11</v>
-      </c>
-      <c r="F33" s="81" t="s">
+      <c r="F33" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="G33" s="88">
+      <c r="G33" s="1">
         <v>12500</v>
       </c>
-      <c r="H33" s="85">
+      <c r="H33" s="55">
         <v>39</v>
       </c>
       <c r="I33" s="55">
@@ -2389,19 +2261,215 @@
       <c r="J33" s="56">
         <v>0</v>
       </c>
+      <c r="K33" t="s">
+        <v>56</v>
+      </c>
+      <c r="L33" s="65" t="b">
+        <f>TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="M33" s="60" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="N33" s="60" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="O33" s="60" t="b">
+        <f>TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="P33" s="60" t="b">
+        <f>TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="Q33" s="60" t="b">
+        <f>TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="R33" s="60" t="b">
+        <f>TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="S33" s="60" t="b">
+        <f>TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="T33" s="60" t="b">
+        <f>TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="U33" s="78" t="b">
+        <f>TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="V33" s="80" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B34" s="59" t="s">
+        <v>10</v>
+      </c>
+      <c r="C34" s="73" t="s">
+        <v>22</v>
+      </c>
+      <c r="D34" s="1">
+        <v>18</v>
+      </c>
+      <c r="E34" s="68">
+        <v>11</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="G34" s="1">
+        <v>25000</v>
+      </c>
+      <c r="H34" s="55">
+        <v>21</v>
+      </c>
+      <c r="I34" s="55">
+        <v>255</v>
+      </c>
+      <c r="J34" s="56">
+        <v>0</v>
+      </c>
+      <c r="L34" s="65" t="b">
+        <f>TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="M34" s="60" t="b">
+        <f>TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="N34" s="60" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="O34" s="60" t="b">
+        <f>TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="P34" s="60" t="b">
+        <f>TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="Q34" s="60" t="b">
+        <f>TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="R34" s="60" t="b">
+        <f>TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="S34" s="60" t="b">
+        <f>TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="T34" s="60" t="b">
+        <f>TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="U34" s="78" t="b">
+        <f>TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="V34" s="80" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B35" s="59" t="s">
+        <v>13</v>
+      </c>
+      <c r="C35" s="74" t="s">
+        <v>29</v>
+      </c>
+      <c r="D35" s="75">
+        <v>51</v>
+      </c>
+      <c r="E35" s="75">
+        <v>11</v>
+      </c>
+      <c r="F35" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="G35" s="7">
+        <v>25000</v>
+      </c>
+      <c r="H35" s="57">
+        <v>63</v>
+      </c>
+      <c r="I35" s="57">
+        <v>255</v>
+      </c>
+      <c r="J35" s="58">
+        <v>0</v>
+      </c>
+      <c r="L35" s="66" t="b">
+        <f>TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="M35" s="67" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="N35" s="67" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="O35" s="67" t="b">
+        <f>TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="P35" s="67" t="b">
+        <f>TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="Q35" s="67" t="b">
+        <f>TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="R35" s="67" t="b">
+        <f>TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="S35" s="67" t="b">
+        <f>TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="T35" s="67" t="b">
+        <f>TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="U35" s="79" t="b">
+        <f>TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="V35" s="81" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="6">
-    <mergeCell ref="B6:B11"/>
-    <mergeCell ref="B26:B27"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="B14:B16"/>
-    <mergeCell ref="B17:B19"/>
-    <mergeCell ref="B20:B25"/>
+    <mergeCell ref="B8:B13"/>
+    <mergeCell ref="B28:B29"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="B16:B18"/>
+    <mergeCell ref="B19:B21"/>
+    <mergeCell ref="B22:B27"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <ignoredErrors>
+    <ignoredError sqref="N33:N35 M34" formula="1"/>
+  </ignoredErrors>
 </worksheet>
 </file>
 
@@ -2415,6 +2483,14 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="3be8e3c0-2842-4b5c-b060-a331e5ce9465" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010085EDC4FCBFEAC44C90B472F1F1C900EA" ma:contentTypeVersion="14" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="e45273375250329c822a0a405177b348">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="3be8e3c0-2842-4b5c-b060-a331e5ce9465" xmlns:ns4="6b4e13fc-0909-4af8-88c8-1f82cb55b253" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="a0e1ca657407e685f067414fb59c7721" ns3:_="" ns4:_="">
     <xsd:import namespace="3be8e3c0-2842-4b5c-b060-a331e5ce9465"/>
@@ -2643,14 +2719,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="3be8e3c0-2842-4b5c-b060-a331e5ce9465" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1B746C5C-9FCE-47B1-9B21-C70DB5E5E0E1}">
   <ds:schemaRefs>
@@ -2660,6 +2728,23 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5F39B334-7462-4EA1-A1AF-57733766443C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="3be8e3c0-2842-4b5c-b060-a331e5ce9465"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="6b4e13fc-0909-4af8-88c8-1f82cb55b253"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{917E079B-BC71-4494-9E92-79C803C2F6BC}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2676,21 +2761,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5F39B334-7462-4EA1-A1AF-57733766443C}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="3be8e3c0-2842-4b5c-b060-a331e5ce9465"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="6b4e13fc-0909-4af8-88c8-1f82cb55b253"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/lib/SAILFormat.xlsx
+++ b/lib/SAILFormat.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ayash\Sailproj\SailProjGit\SAILcode\lib\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{117AEB41-A559-4C66-B0C6-205610A090CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B019D438-988A-47BF-95B4-867B383ABFFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{93DD1A3E-79F5-40A0-9DE4-B4C0229D9C52}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="58">
   <si>
     <t>Graph #</t>
   </si>
@@ -203,13 +203,13 @@
     <t>Dig. Temp</t>
   </si>
   <si>
-    <t>Display Truth Table</t>
-  </si>
-  <si>
-    <t>[optional]</t>
-  </si>
-  <si>
     <t>House keeping:</t>
+  </si>
+  <si>
+    <t>End Row</t>
+  </si>
+  <si>
+    <t>Start Row</t>
   </si>
 </sst>
 </file>
@@ -691,7 +691,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="90">
+  <cellXfs count="88">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -783,9 +783,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -894,9 +891,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1252,10 +1246,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7758D255-7225-412E-BCCB-5D6A66A51808}">
-  <dimension ref="A2:V35"/>
+  <dimension ref="A2:U34"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="P33" sqref="P33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1267,36 +1261,44 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C2">
-        <v>7</v>
-      </c>
-      <c r="D2">
-        <v>6</v>
+      <c r="C2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D2" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="3" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C3">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="D3">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>57</v>
+        <v>20</v>
       </c>
       <c r="C4">
+        <v>16</v>
+      </c>
+      <c r="D4">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="5" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>55</v>
+      </c>
+      <c r="C5">
         <v>32</v>
       </c>
-      <c r="D4">
-        <v>2</v>
+      <c r="D5">
+        <v>33</v>
       </c>
     </row>
     <row r="6" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
@@ -1316,16 +1318,16 @@
       <c r="F7" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="G7" s="85" t="s">
+      <c r="G7" s="83" t="s">
         <v>9</v>
       </c>
-      <c r="H7" s="85"/>
-      <c r="I7" s="40" t="s">
+      <c r="H7" s="83"/>
+      <c r="I7" s="39" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B8" s="82" t="s">
+      <c r="B8" s="80" t="s">
         <v>21</v>
       </c>
       <c r="C8" s="14" t="s">
@@ -1348,12 +1350,12 @@
         <f>2^19</f>
         <v>524288</v>
       </c>
-      <c r="I8" s="40">
+      <c r="I8" s="39">
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B9" s="82"/>
+      <c r="B9" s="80"/>
       <c r="C9" s="14" t="s">
         <v>12</v>
       </c>
@@ -1374,12 +1376,12 @@
         <f>2^19</f>
         <v>524288</v>
       </c>
-      <c r="I9" s="40">
+      <c r="I9" s="39">
         <v>1</v>
       </c>
     </row>
     <row r="10" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B10" s="82"/>
+      <c r="B10" s="80"/>
       <c r="C10" s="14" t="s">
         <v>13</v>
       </c>
@@ -1400,12 +1402,12 @@
         <f>2^17</f>
         <v>131072</v>
       </c>
-      <c r="I10" s="40">
+      <c r="I10" s="39">
         <v>2</v>
       </c>
     </row>
     <row r="11" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B11" s="82"/>
+      <c r="B11" s="80"/>
       <c r="C11" s="14" t="s">
         <v>17</v>
       </c>
@@ -1426,12 +1428,12 @@
         <f>2^19</f>
         <v>524288</v>
       </c>
-      <c r="I11" s="40">
+      <c r="I11" s="39">
         <v>3</v>
       </c>
     </row>
     <row r="12" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B12" s="82"/>
+      <c r="B12" s="80"/>
       <c r="C12" s="14" t="s">
         <v>10</v>
       </c>
@@ -1452,12 +1454,12 @@
         <f>2^23</f>
         <v>8388608</v>
       </c>
-      <c r="I12" s="40">
+      <c r="I12" s="39">
         <v>4</v>
       </c>
     </row>
     <row r="13" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="82"/>
+      <c r="B13" s="80"/>
       <c r="C13" s="16" t="s">
         <v>18</v>
       </c>
@@ -1478,7 +1480,7 @@
         <f>2^12</f>
         <v>4096</v>
       </c>
-      <c r="I13" s="40">
+      <c r="I13" s="39">
         <v>5</v>
       </c>
     </row>
@@ -1487,48 +1489,48 @@
       <c r="B15" t="s">
         <v>41</v>
       </c>
-      <c r="C15" s="33" t="s">
+      <c r="C15" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="D15" s="34" t="s">
+      <c r="D15" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="E15" s="35" t="s">
+      <c r="E15" s="34" t="s">
         <v>34</v>
       </c>
-      <c r="F15" s="35" t="s">
+      <c r="F15" s="34" t="s">
         <v>26</v>
       </c>
-      <c r="G15" s="36" t="s">
-        <v>1</v>
-      </c>
-      <c r="H15" s="36" t="s">
+      <c r="G15" s="35" t="s">
+        <v>1</v>
+      </c>
+      <c r="H15" s="35" t="s">
         <v>6</v>
       </c>
-      <c r="I15" s="36" t="s">
+      <c r="I15" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="J15" s="37" t="s">
+      <c r="J15" s="36" t="s">
         <v>2</v>
       </c>
-      <c r="K15" s="37" t="s">
+      <c r="K15" s="36" t="s">
         <v>6</v>
       </c>
-      <c r="L15" s="37" t="s">
+      <c r="L15" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="M15" s="38" t="s">
+      <c r="M15" s="37" t="s">
         <v>3</v>
       </c>
-      <c r="N15" s="39" t="s">
+      <c r="N15" s="38" t="s">
         <v>6</v>
       </c>
-      <c r="O15" s="38" t="s">
+      <c r="O15" s="37" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="16" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B16" s="86" t="s">
+      <c r="B16" s="84" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="28">
@@ -1571,8 +1573,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="B17" s="86"/>
+    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="B17" s="84"/>
       <c r="C17" s="29">
         <v>4</v>
       </c>
@@ -1613,8 +1615,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="86"/>
+    <row r="18" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B18" s="84"/>
       <c r="C18" s="30">
         <v>4</v>
       </c>
@@ -1655,8 +1657,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="B19" s="86" t="s">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="B19" s="84" t="s">
         <v>32</v>
       </c>
       <c r="C19" s="28">
@@ -1699,8 +1701,8 @@
         <v>-4</v>
       </c>
     </row>
-    <row r="20" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="B20" s="86"/>
+    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="B20" s="84"/>
       <c r="C20" s="29">
         <v>0</v>
       </c>
@@ -1741,50 +1743,50 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="86"/>
-      <c r="C21" s="46">
-        <v>1</v>
-      </c>
-      <c r="D21" s="47" t="s">
+    <row r="21" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B21" s="84"/>
+      <c r="C21" s="45">
+        <v>1</v>
+      </c>
+      <c r="D21" s="46" t="s">
         <v>25</v>
       </c>
-      <c r="E21" s="48" t="s">
+      <c r="E21" s="47" t="s">
         <v>22</v>
       </c>
-      <c r="F21" s="48">
-        <v>1</v>
-      </c>
-      <c r="G21" s="49">
+      <c r="F21" s="47">
+        <v>1</v>
+      </c>
+      <c r="G21" s="48">
         <v>36</v>
       </c>
-      <c r="H21" s="49">
-        <v>255</v>
-      </c>
-      <c r="I21" s="49">
+      <c r="H21" s="48">
+        <v>255</v>
+      </c>
+      <c r="I21" s="48">
         <v>12</v>
       </c>
-      <c r="J21" s="50">
+      <c r="J21" s="49">
         <v>37</v>
       </c>
-      <c r="K21" s="50">
-        <v>255</v>
-      </c>
-      <c r="L21" s="50">
+      <c r="K21" s="49">
+        <v>255</v>
+      </c>
+      <c r="L21" s="49">
         <v>4</v>
       </c>
-      <c r="M21" s="51">
+      <c r="M21" s="50">
         <v>39</v>
       </c>
-      <c r="N21" s="51">
+      <c r="N21" s="50">
         <v>240</v>
       </c>
-      <c r="O21" s="52">
+      <c r="O21" s="51">
         <v>-4</v>
       </c>
     </row>
-    <row r="22" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="B22" s="87" t="s">
+    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="B22" s="85" t="s">
         <v>33</v>
       </c>
       <c r="C22" s="28">
@@ -1827,8 +1829,8 @@
         <v>-6</v>
       </c>
     </row>
-    <row r="23" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="B23" s="88"/>
+    <row r="23" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="B23" s="86"/>
       <c r="C23" s="29">
         <v>2</v>
       </c>
@@ -1869,8 +1871,8 @@
         <v>-4</v>
       </c>
     </row>
-    <row r="24" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="88"/>
+    <row r="24" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B24" s="86"/>
       <c r="C24" s="30">
         <v>2</v>
       </c>
@@ -1911,8 +1913,8 @@
         <v>-2</v>
       </c>
     </row>
-    <row r="25" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="B25" s="89"/>
+    <row r="25" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="B25" s="87"/>
       <c r="C25" s="28">
         <v>3</v>
       </c>
@@ -1953,9 +1955,9 @@
         <v>-4</v>
       </c>
     </row>
-    <row r="26" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A26" s="19"/>
-      <c r="B26" s="89"/>
+      <c r="B26" s="87"/>
       <c r="C26" s="29">
         <v>3</v>
       </c>
@@ -1996,9 +1998,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A27" s="19"/>
-      <c r="B27" s="84"/>
+      <c r="B27" s="82"/>
       <c r="C27" s="29">
         <v>3</v>
       </c>
@@ -2039,52 +2041,52 @@
         <v>-4</v>
       </c>
     </row>
-    <row r="28" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="B28" s="83" t="s">
+    <row r="28" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="B28" s="81" t="s">
         <v>18</v>
       </c>
-      <c r="C28" s="53">
+      <c r="C28" s="52">
         <v>5</v>
       </c>
-      <c r="D28" s="41" t="s">
+      <c r="D28" s="40" t="s">
         <v>23</v>
       </c>
-      <c r="E28" s="42" t="s">
+      <c r="E28" s="41" t="s">
         <v>30</v>
       </c>
-      <c r="F28" s="42">
+      <c r="F28" s="41">
         <v>0</v>
       </c>
-      <c r="G28" s="43">
+      <c r="G28" s="42">
         <v>78</v>
       </c>
-      <c r="H28" s="43">
-        <v>255</v>
-      </c>
-      <c r="I28" s="43">
+      <c r="H28" s="42">
+        <v>255</v>
+      </c>
+      <c r="I28" s="42">
         <v>4</v>
       </c>
-      <c r="J28" s="44">
+      <c r="J28" s="43">
         <v>-1</v>
       </c>
-      <c r="K28" s="44">
+      <c r="K28" s="43">
         <v>-1</v>
       </c>
-      <c r="L28" s="44">
+      <c r="L28" s="43">
         <v>-1</v>
       </c>
-      <c r="M28" s="45">
+      <c r="M28" s="44">
         <v>79</v>
       </c>
-      <c r="N28" s="45">
+      <c r="N28" s="44">
         <v>240</v>
       </c>
-      <c r="O28" s="54">
+      <c r="O28" s="53">
         <v>-4</v>
       </c>
     </row>
-    <row r="29" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="B29" s="84"/>
+    <row r="29" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="B29" s="82"/>
       <c r="C29" s="29">
         <v>5</v>
       </c>
@@ -2125,332 +2127,284 @@
         <v>-4</v>
       </c>
     </row>
-    <row r="30" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="32"/>
-      <c r="C30" s="30">
-        <v>3</v>
-      </c>
-      <c r="D30" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="E30" s="27" t="s">
-        <v>29</v>
-      </c>
-      <c r="F30" s="27">
-        <v>1</v>
-      </c>
-      <c r="G30" s="8">
-        <v>61</v>
-      </c>
-      <c r="H30" s="8">
+    <row r="30" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="31" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="B31" t="s">
+        <v>42</v>
+      </c>
+      <c r="C31" s="68" t="s">
+        <v>34</v>
+      </c>
+      <c r="D31" s="69" t="s">
+        <v>35</v>
+      </c>
+      <c r="E31" s="69" t="s">
+        <v>36</v>
+      </c>
+      <c r="F31" s="69" t="s">
+        <v>37</v>
+      </c>
+      <c r="G31" s="69" t="s">
+        <v>40</v>
+      </c>
+      <c r="H31" s="70" t="s">
+        <v>43</v>
+      </c>
+      <c r="I31" s="70" t="s">
+        <v>6</v>
+      </c>
+      <c r="J31" s="71" t="s">
+        <v>5</v>
+      </c>
+      <c r="K31" s="60" t="s">
+        <v>44</v>
+      </c>
+      <c r="L31" s="61" t="s">
+        <v>45</v>
+      </c>
+      <c r="M31" s="61" t="s">
+        <v>46</v>
+      </c>
+      <c r="N31" s="61" t="s">
+        <v>47</v>
+      </c>
+      <c r="O31" s="61" t="s">
+        <v>48</v>
+      </c>
+      <c r="P31" s="62" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q31" s="62" t="s">
+        <v>50</v>
+      </c>
+      <c r="R31" s="62" t="s">
+        <v>51</v>
+      </c>
+      <c r="S31" s="62" t="s">
+        <v>53</v>
+      </c>
+      <c r="T31" s="75" t="s">
+        <v>52</v>
+      </c>
+      <c r="U31" s="63" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="32" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="B32" s="58" t="s">
+        <v>12</v>
+      </c>
+      <c r="C32" s="72" t="s">
+        <v>22</v>
+      </c>
+      <c r="D32" s="67">
+        <v>135</v>
+      </c>
+      <c r="E32" s="67">
+        <v>11</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="G32" s="1">
+        <v>12500</v>
+      </c>
+      <c r="H32" s="54">
+        <v>39</v>
+      </c>
+      <c r="I32" s="54">
         <v>15</v>
       </c>
-      <c r="I30" s="8">
-        <v>8</v>
-      </c>
-      <c r="J30" s="9">
-        <v>-1</v>
-      </c>
-      <c r="K30" s="9">
-        <v>-1</v>
-      </c>
-      <c r="L30" s="9">
-        <v>-1</v>
-      </c>
-      <c r="M30" s="10">
-        <v>62</v>
-      </c>
-      <c r="N30" s="10">
-        <v>255</v>
-      </c>
-      <c r="O30" s="11">
+      <c r="J32" s="55">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="32" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="B32" t="s">
-        <v>42</v>
-      </c>
-      <c r="C32" s="69" t="s">
-        <v>34</v>
-      </c>
-      <c r="D32" s="70" t="s">
-        <v>35</v>
-      </c>
-      <c r="E32" s="70" t="s">
-        <v>36</v>
-      </c>
-      <c r="F32" s="70" t="s">
-        <v>37</v>
-      </c>
-      <c r="G32" s="70" t="s">
-        <v>40</v>
-      </c>
-      <c r="H32" s="71" t="s">
-        <v>43</v>
-      </c>
-      <c r="I32" s="71" t="s">
-        <v>6</v>
-      </c>
-      <c r="J32" s="72" t="s">
-        <v>5</v>
-      </c>
-      <c r="K32" s="76" t="s">
-        <v>55</v>
-      </c>
-      <c r="L32" s="61" t="s">
-        <v>44</v>
-      </c>
-      <c r="M32" s="62" t="s">
-        <v>45</v>
-      </c>
-      <c r="N32" s="62" t="s">
-        <v>46</v>
-      </c>
-      <c r="O32" s="62" t="s">
-        <v>47</v>
-      </c>
-      <c r="P32" s="62" t="s">
-        <v>48</v>
-      </c>
-      <c r="Q32" s="63" t="s">
-        <v>49</v>
-      </c>
-      <c r="R32" s="63" t="s">
-        <v>50</v>
-      </c>
-      <c r="S32" s="63" t="s">
-        <v>51</v>
-      </c>
-      <c r="T32" s="63" t="s">
-        <v>53</v>
-      </c>
-      <c r="U32" s="77" t="s">
-        <v>52</v>
-      </c>
-      <c r="V32" s="64" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="33" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B33" s="59" t="s">
-        <v>12</v>
-      </c>
-      <c r="C33" s="73" t="s">
-        <v>22</v>
-      </c>
-      <c r="D33" s="68">
-        <v>135</v>
-      </c>
-      <c r="E33" s="68">
-        <v>11</v>
-      </c>
-      <c r="F33" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="G33" s="1">
-        <v>12500</v>
-      </c>
-      <c r="H33" s="55">
-        <v>39</v>
-      </c>
-      <c r="I33" s="55">
-        <v>15</v>
-      </c>
-      <c r="J33" s="56">
-        <v>0</v>
-      </c>
-      <c r="K33" t="s">
-        <v>56</v>
-      </c>
-      <c r="L33" s="65" t="b">
+      <c r="K32" s="64" t="b">
         <f>TRUE()</f>
         <v>1</v>
       </c>
-      <c r="M33" s="60" t="b">
+      <c r="L32" s="59" t="b">
         <f>FALSE()</f>
         <v>0</v>
       </c>
-      <c r="N33" s="60" t="b">
+      <c r="M32" s="59" t="b">
         <f>FALSE()</f>
         <v>0</v>
       </c>
-      <c r="O33" s="60" t="b">
+      <c r="N32" s="59" t="b">
         <f>TRUE()</f>
         <v>1</v>
       </c>
-      <c r="P33" s="60" t="b">
+      <c r="O32" s="59" t="b">
         <f>TRUE()</f>
         <v>1</v>
       </c>
-      <c r="Q33" s="60" t="b">
+      <c r="P32" s="59" t="b">
         <f>TRUE()</f>
         <v>1</v>
       </c>
-      <c r="R33" s="60" t="b">
+      <c r="Q32" s="59" t="b">
         <f>TRUE()</f>
         <v>1</v>
       </c>
-      <c r="S33" s="60" t="b">
+      <c r="R32" s="59" t="b">
         <f>TRUE()</f>
         <v>1</v>
       </c>
-      <c r="T33" s="60" t="b">
+      <c r="S32" s="59" t="b">
         <f>TRUE()</f>
         <v>1</v>
       </c>
-      <c r="U33" s="78" t="b">
+      <c r="T32" s="76" t="b">
         <f>TRUE()</f>
         <v>1</v>
       </c>
-      <c r="V33" s="80" t="b">
+      <c r="U32" s="78" t="b">
         <f>FALSE()</f>
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B34" s="59" t="s">
+    <row r="33" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B33" s="58" t="s">
         <v>10</v>
       </c>
-      <c r="C34" s="73" t="s">
+      <c r="C33" s="72" t="s">
         <v>22</v>
       </c>
-      <c r="D34" s="1">
+      <c r="D33" s="1">
         <v>18</v>
       </c>
-      <c r="E34" s="68">
+      <c r="E33" s="67">
         <v>11</v>
       </c>
-      <c r="F34" s="1" t="s">
+      <c r="F33" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="G34" s="1">
+      <c r="G33" s="1">
         <v>25000</v>
       </c>
-      <c r="H34" s="55">
+      <c r="H33" s="54">
         <v>21</v>
       </c>
-      <c r="I34" s="55">
-        <v>255</v>
-      </c>
-      <c r="J34" s="56">
+      <c r="I33" s="54">
+        <v>255</v>
+      </c>
+      <c r="J33" s="55">
         <v>0</v>
       </c>
-      <c r="L34" s="65" t="b">
+      <c r="K33" s="64" t="b">
         <f>TRUE()</f>
         <v>1</v>
       </c>
-      <c r="M34" s="60" t="b">
+      <c r="L33" s="59" t="b">
         <f>TRUE()</f>
         <v>1</v>
       </c>
-      <c r="N34" s="60" t="b">
+      <c r="M33" s="59" t="b">
         <f>FALSE()</f>
         <v>0</v>
       </c>
-      <c r="O34" s="60" t="b">
+      <c r="N33" s="59" t="b">
         <f>TRUE()</f>
         <v>1</v>
       </c>
-      <c r="P34" s="60" t="b">
+      <c r="O33" s="59" t="b">
         <f>TRUE()</f>
         <v>1</v>
       </c>
-      <c r="Q34" s="60" t="b">
+      <c r="P33" s="59" t="b">
         <f>TRUE()</f>
         <v>1</v>
       </c>
-      <c r="R34" s="60" t="b">
+      <c r="Q33" s="59" t="b">
         <f>TRUE()</f>
         <v>1</v>
       </c>
-      <c r="S34" s="60" t="b">
+      <c r="R33" s="59" t="b">
         <f>TRUE()</f>
         <v>1</v>
       </c>
-      <c r="T34" s="60" t="b">
+      <c r="S33" s="59" t="b">
         <f>TRUE()</f>
         <v>1</v>
       </c>
-      <c r="U34" s="78" t="b">
+      <c r="T33" s="76" t="b">
         <f>TRUE()</f>
         <v>1</v>
       </c>
-      <c r="V34" s="80" t="b">
+      <c r="U33" s="78" t="b">
         <f>FALSE()</f>
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="2:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B35" s="59" t="s">
+    <row r="34" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B34" s="58" t="s">
         <v>13</v>
       </c>
-      <c r="C35" s="74" t="s">
+      <c r="C34" s="73" t="s">
         <v>29</v>
       </c>
-      <c r="D35" s="75">
+      <c r="D34" s="74">
         <v>51</v>
       </c>
-      <c r="E35" s="75">
+      <c r="E34" s="74">
         <v>11</v>
       </c>
-      <c r="F35" s="7" t="s">
+      <c r="F34" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="G35" s="7">
+      <c r="G34" s="7">
         <v>25000</v>
       </c>
-      <c r="H35" s="57">
+      <c r="H34" s="56">
         <v>63</v>
       </c>
-      <c r="I35" s="57">
-        <v>255</v>
-      </c>
-      <c r="J35" s="58">
+      <c r="I34" s="56">
+        <v>255</v>
+      </c>
+      <c r="J34" s="57">
         <v>0</v>
       </c>
-      <c r="L35" s="66" t="b">
+      <c r="K34" s="65" t="b">
         <f>TRUE()</f>
         <v>1</v>
       </c>
-      <c r="M35" s="67" t="b">
+      <c r="L34" s="66" t="b">
         <f>FALSE()</f>
         <v>0</v>
       </c>
-      <c r="N35" s="67" t="b">
+      <c r="M34" s="66" t="b">
         <f>FALSE()</f>
         <v>0</v>
       </c>
-      <c r="O35" s="67" t="b">
+      <c r="N34" s="66" t="b">
         <f>TRUE()</f>
         <v>1</v>
       </c>
-      <c r="P35" s="67" t="b">
+      <c r="O34" s="66" t="b">
         <f>TRUE()</f>
         <v>1</v>
       </c>
-      <c r="Q35" s="67" t="b">
+      <c r="P34" s="66" t="b">
         <f>TRUE()</f>
         <v>1</v>
       </c>
-      <c r="R35" s="67" t="b">
+      <c r="Q34" s="66" t="b">
         <f>TRUE()</f>
         <v>1</v>
       </c>
-      <c r="S35" s="67" t="b">
+      <c r="R34" s="66" t="b">
         <f>TRUE()</f>
         <v>1</v>
       </c>
-      <c r="T35" s="67" t="b">
+      <c r="S34" s="66" t="b">
         <f>TRUE()</f>
         <v>1</v>
       </c>
-      <c r="U35" s="79" t="b">
+      <c r="T34" s="77" t="b">
         <f>TRUE()</f>
         <v>1</v>
       </c>
-      <c r="V35" s="81" t="b">
+      <c r="U34" s="79" t="b">
         <f>FALSE()</f>
         <v>0</v>
       </c>
@@ -2468,29 +2422,12 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="N33:N35 M34" formula="1"/>
+    <ignoredError sqref="M32:M34 L33" formula="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="3be8e3c0-2842-4b5c-b060-a331e5ce9465" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010085EDC4FCBFEAC44C90B472F1F1C900EA" ma:contentTypeVersion="14" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="e45273375250329c822a0a405177b348">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="3be8e3c0-2842-4b5c-b060-a331e5ce9465" xmlns:ns4="6b4e13fc-0909-4af8-88c8-1f82cb55b253" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="a0e1ca657407e685f067414fb59c7721" ns3:_="" ns4:_="">
     <xsd:import namespace="3be8e3c0-2842-4b5c-b060-a331e5ce9465"/>
@@ -2719,10 +2656,38 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="3be8e3c0-2842-4b5c-b060-a331e5ce9465" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1B746C5C-9FCE-47B1-9B21-C70DB5E5E0E1}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{917E079B-BC71-4494-9E92-79C803C2F6BC}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="3be8e3c0-2842-4b5c-b060-a331e5ce9465"/>
+    <ds:schemaRef ds:uri="6b4e13fc-0909-4af8-88c8-1f82cb55b253"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -2745,20 +2710,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{917E079B-BC71-4494-9E92-79C803C2F6BC}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1B746C5C-9FCE-47B1-9B21-C70DB5E5E0E1}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="3be8e3c0-2842-4b5c-b060-a331e5ce9465"/>
-    <ds:schemaRef ds:uri="6b4e13fc-0909-4af8-88c8-1f82cb55b253"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/lib/SAILFormat.xlsx
+++ b/lib/SAILFormat.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ayash\Sailproj\SailProjGit\SAILcode\lib\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B019D438-988A-47BF-95B4-867B383ABFFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51924AF5-C48B-46F8-A653-0A3D27E0840C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{93DD1A3E-79F5-40A0-9DE4-B4C0229D9C52}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="522" xr2:uid="{93DD1A3E-79F5-40A0-9DE4-B4C0229D9C52}"/>
   </bookViews>
   <sheets>
     <sheet name="Format" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="59">
   <si>
     <t>Graph #</t>
   </si>
@@ -210,6 +210,9 @@
   </si>
   <si>
     <t>Start Row</t>
+  </si>
+  <si>
+    <t>name</t>
   </si>
 </sst>
 </file>
@@ -691,7 +694,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="88">
+  <cellXfs count="89">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -921,6 +924,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1246,18 +1252,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7758D255-7225-412E-BCCB-5D6A66A51808}">
-  <dimension ref="A2:U34"/>
+  <dimension ref="A2:V43"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="P33" sqref="P33"/>
+    <sheetView tabSelected="1" topLeftCell="C6" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="L37" sqref="L37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5.85546875" customWidth="1"/>
-    <col min="2" max="2" width="18.28515625" customWidth="1"/>
-    <col min="3" max="11" width="16.7109375" customWidth="1"/>
-    <col min="12" max="22" width="15.5703125" customWidth="1"/>
+    <col min="2" max="22" width="18.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:15" x14ac:dyDescent="0.25">
@@ -1573,7 +1577,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B17" s="84"/>
       <c r="C17" s="29">
         <v>4</v>
@@ -1615,7 +1619,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B18" s="84"/>
       <c r="C18" s="30">
         <v>4</v>
@@ -1657,7 +1661,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B19" s="84" t="s">
         <v>32</v>
       </c>
@@ -1701,7 +1705,7 @@
         <v>-4</v>
       </c>
     </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B20" s="84"/>
       <c r="C20" s="29">
         <v>0</v>
@@ -1743,7 +1747,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B21" s="84"/>
       <c r="C21" s="45">
         <v>1</v>
@@ -1785,7 +1789,7 @@
         <v>-4</v>
       </c>
     </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B22" s="85" t="s">
         <v>33</v>
       </c>
@@ -1829,7 +1833,7 @@
         <v>-6</v>
       </c>
     </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B23" s="86"/>
       <c r="C23" s="29">
         <v>2</v>
@@ -1871,7 +1875,7 @@
         <v>-4</v>
       </c>
     </row>
-    <row r="24" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B24" s="86"/>
       <c r="C24" s="30">
         <v>2</v>
@@ -1913,7 +1917,7 @@
         <v>-2</v>
       </c>
     </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B25" s="87"/>
       <c r="C25" s="28">
         <v>3</v>
@@ -1955,7 +1959,7 @@
         <v>-4</v>
       </c>
     </row>
-    <row r="26" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A26" s="19"/>
       <c r="B26" s="87"/>
       <c r="C26" s="29">
@@ -1998,7 +2002,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A27" s="19"/>
       <c r="B27" s="82"/>
       <c r="C27" s="29">
@@ -2041,7 +2045,7 @@
         <v>-4</v>
       </c>
     </row>
-    <row r="28" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B28" s="81" t="s">
         <v>18</v>
       </c>
@@ -2085,7 +2089,7 @@
         <v>-4</v>
       </c>
     </row>
-    <row r="29" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B29" s="82"/>
       <c r="C29" s="29">
         <v>5</v>
@@ -2127,112 +2131,114 @@
         <v>-4</v>
       </c>
     </row>
-    <row r="30" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="31" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="31" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
         <v>42</v>
       </c>
-      <c r="C31" s="68" t="s">
+      <c r="C31" t="s">
+        <v>58</v>
+      </c>
+      <c r="D31" s="68" t="s">
         <v>34</v>
       </c>
-      <c r="D31" s="69" t="s">
+      <c r="E31" s="69" t="s">
         <v>35</v>
       </c>
-      <c r="E31" s="69" t="s">
+      <c r="F31" s="69" t="s">
         <v>36</v>
       </c>
-      <c r="F31" s="69" t="s">
+      <c r="G31" s="69" t="s">
         <v>37</v>
       </c>
-      <c r="G31" s="69" t="s">
+      <c r="H31" s="69" t="s">
         <v>40</v>
       </c>
-      <c r="H31" s="70" t="s">
+      <c r="I31" s="70" t="s">
         <v>43</v>
       </c>
-      <c r="I31" s="70" t="s">
+      <c r="J31" s="70" t="s">
         <v>6</v>
       </c>
-      <c r="J31" s="71" t="s">
+      <c r="K31" s="71" t="s">
         <v>5</v>
       </c>
-      <c r="K31" s="60" t="s">
+      <c r="L31" s="60" t="s">
         <v>44</v>
       </c>
-      <c r="L31" s="61" t="s">
+      <c r="M31" s="61" t="s">
         <v>45</v>
       </c>
-      <c r="M31" s="61" t="s">
+      <c r="N31" s="61" t="s">
         <v>46</v>
       </c>
-      <c r="N31" s="61" t="s">
+      <c r="O31" s="61" t="s">
         <v>47</v>
       </c>
-      <c r="O31" s="61" t="s">
+      <c r="P31" s="61" t="s">
         <v>48</v>
       </c>
-      <c r="P31" s="62" t="s">
+      <c r="Q31" s="62" t="s">
         <v>49</v>
       </c>
-      <c r="Q31" s="62" t="s">
+      <c r="R31" s="62" t="s">
         <v>50</v>
       </c>
-      <c r="R31" s="62" t="s">
+      <c r="S31" s="62" t="s">
         <v>51</v>
       </c>
-      <c r="S31" s="62" t="s">
+      <c r="T31" s="62" t="s">
         <v>53</v>
       </c>
-      <c r="T31" s="75" t="s">
+      <c r="U31" s="75" t="s">
         <v>52</v>
       </c>
-      <c r="U31" s="63" t="s">
+      <c r="V31" s="63" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="32" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B32" s="58" t="s">
         <v>12</v>
       </c>
-      <c r="C32" s="72" t="s">
+      <c r="C32" t="s">
+        <v>12</v>
+      </c>
+      <c r="D32" s="72" t="s">
         <v>22</v>
       </c>
-      <c r="D32" s="67">
+      <c r="E32" s="67">
         <v>135</v>
       </c>
-      <c r="E32" s="67">
+      <c r="F32" s="67">
         <v>11</v>
       </c>
-      <c r="F32" s="1" t="s">
+      <c r="G32" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="G32" s="1">
+      <c r="H32" s="1">
         <v>12500</v>
       </c>
-      <c r="H32" s="54">
+      <c r="I32" s="54">
         <v>39</v>
       </c>
-      <c r="I32" s="54">
+      <c r="J32" s="54">
         <v>15</v>
       </c>
-      <c r="J32" s="55">
+      <c r="K32" s="55">
         <v>0</v>
       </c>
-      <c r="K32" s="64" t="b">
+      <c r="L32" s="64" t="b">
         <f>TRUE()</f>
         <v>1</v>
-      </c>
-      <c r="L32" s="59" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
       </c>
       <c r="M32" s="59" t="b">
         <f>FALSE()</f>
         <v>0</v>
       </c>
       <c r="N32" s="59" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
+        <f>FALSE()</f>
+        <v>0</v>
       </c>
       <c r="O32" s="59" t="b">
         <f>TRUE()</f>
@@ -2254,131 +2260,137 @@
         <f>TRUE()</f>
         <v>1</v>
       </c>
-      <c r="T32" s="76" t="b">
+      <c r="T32" s="59" t="b">
         <f>TRUE()</f>
         <v>1</v>
       </c>
-      <c r="U32" s="78" t="b">
+      <c r="U32" s="76" t="b">
+        <f>TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="V32" s="78" t="b">
+        <f>TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B33" s="58" t="s">
+        <v>10</v>
+      </c>
+      <c r="C33" t="s">
+        <v>10</v>
+      </c>
+      <c r="D33" s="72" t="s">
+        <v>22</v>
+      </c>
+      <c r="E33" s="1">
+        <v>18</v>
+      </c>
+      <c r="F33" s="67">
+        <v>11</v>
+      </c>
+      <c r="G33" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="H33" s="1">
+        <v>25000</v>
+      </c>
+      <c r="I33" s="54">
+        <v>21</v>
+      </c>
+      <c r="J33" s="54">
+        <v>255</v>
+      </c>
+      <c r="K33" s="55">
+        <v>0</v>
+      </c>
+      <c r="L33" s="64" t="b">
+        <f>TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="M33" s="59" t="b">
+        <f>TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="N33" s="59" t="b">
         <f>FALSE()</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B33" s="58" t="s">
-        <v>10</v>
-      </c>
-      <c r="C33" s="72" t="s">
-        <v>22</v>
-      </c>
-      <c r="D33" s="1">
-        <v>18</v>
-      </c>
-      <c r="E33" s="67">
-        <v>11</v>
-      </c>
-      <c r="F33" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="G33" s="1">
-        <v>25000</v>
-      </c>
-      <c r="H33" s="54">
-        <v>21</v>
-      </c>
-      <c r="I33" s="54">
-        <v>255</v>
-      </c>
-      <c r="J33" s="55">
-        <v>0</v>
-      </c>
-      <c r="K33" s="64" t="b">
+      <c r="O33" s="59" t="b">
         <f>TRUE()</f>
         <v>1</v>
       </c>
-      <c r="L33" s="59" t="b">
+      <c r="P33" s="59" t="b">
         <f>TRUE()</f>
         <v>1</v>
       </c>
-      <c r="M33" s="59" t="b">
+      <c r="Q33" s="59" t="b">
+        <f>TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="R33" s="59" t="b">
+        <f>TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="S33" s="59" t="b">
+        <f>TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="T33" s="59" t="b">
+        <f>TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="U33" s="76" t="b">
+        <f>TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="V33" s="78" t="b">
         <f>FALSE()</f>
         <v>0</v>
       </c>
-      <c r="N33" s="59" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="O33" s="59" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="P33" s="59" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="Q33" s="59" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="R33" s="59" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="S33" s="59" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="T33" s="76" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="U33" s="78" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="34" spans="2:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B34" s="58" t="s">
         <v>13</v>
       </c>
-      <c r="C34" s="73" t="s">
+      <c r="C34" t="s">
+        <v>13</v>
+      </c>
+      <c r="D34" s="73" t="s">
         <v>29</v>
       </c>
-      <c r="D34" s="74">
+      <c r="E34" s="74">
         <v>51</v>
       </c>
-      <c r="E34" s="74">
+      <c r="F34" s="74">
         <v>11</v>
       </c>
-      <c r="F34" s="7" t="s">
+      <c r="G34" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="G34" s="7">
+      <c r="H34" s="7">
         <v>25000</v>
       </c>
-      <c r="H34" s="56">
+      <c r="I34" s="56">
         <v>63</v>
       </c>
-      <c r="I34" s="56">
-        <v>255</v>
-      </c>
-      <c r="J34" s="57">
+      <c r="J34" s="56">
+        <v>255</v>
+      </c>
+      <c r="K34" s="57">
         <v>0</v>
       </c>
-      <c r="K34" s="65" t="b">
+      <c r="L34" s="65" t="b">
         <f>TRUE()</f>
         <v>1</v>
-      </c>
-      <c r="L34" s="66" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
       </c>
       <c r="M34" s="66" t="b">
         <f>FALSE()</f>
         <v>0</v>
       </c>
       <c r="N34" s="66" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
+        <f>FALSE()</f>
+        <v>0</v>
       </c>
       <c r="O34" s="66" t="b">
         <f>TRUE()</f>
@@ -2400,14 +2412,21 @@
         <f>TRUE()</f>
         <v>1</v>
       </c>
-      <c r="T34" s="77" t="b">
+      <c r="T34" s="66" t="b">
         <f>TRUE()</f>
         <v>1</v>
       </c>
-      <c r="U34" s="79" t="b">
+      <c r="U34" s="77" t="b">
+        <f>TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="V34" s="79" t="b">
         <f>FALSE()</f>
         <v>0</v>
       </c>
+    </row>
+    <row r="43" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="E43" s="88"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -2422,7 +2441,7 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="M32:M34 L33" formula="1"/>
+    <ignoredError sqref="N32:N34 M33" formula="1"/>
   </ignoredErrors>
 </worksheet>
 </file>

--- a/lib/SAILFormat.xlsx
+++ b/lib/SAILFormat.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ayash\Sailproj\SailProjGit\SAILcode\lib\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51924AF5-C48B-46F8-A653-0A3D27E0840C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84E72710-753E-49FD-A2BC-35A60DEA9D77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="522" xr2:uid="{93DD1A3E-79F5-40A0-9DE4-B4C0229D9C52}"/>
   </bookViews>
@@ -1254,8 +1254,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7758D255-7225-412E-BCCB-5D6A66A51808}">
   <dimension ref="A2:V43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C6" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="L37" sqref="L37"/>
+    <sheetView showFormulas="1" tabSelected="1" topLeftCell="L1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="V33" sqref="V33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2269,8 +2269,8 @@
         <v>1</v>
       </c>
       <c r="V32" s="78" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
+        <f>FALSE()</f>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="2:22" x14ac:dyDescent="0.25">

--- a/lib/SAILFormat.xlsx
+++ b/lib/SAILFormat.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ayash\Sailproj\SailProjGit\SAILcode\lib\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84E72710-753E-49FD-A2BC-35A60DEA9D77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B978DA6E-2061-4A45-BB6D-26D177002986}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="522" xr2:uid="{93DD1A3E-79F5-40A0-9DE4-B4C0229D9C52}"/>
   </bookViews>
@@ -1254,8 +1254,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7758D255-7225-412E-BCCB-5D6A66A51808}">
   <dimension ref="A2:V43"/>
   <sheetViews>
-    <sheetView showFormulas="1" tabSelected="1" topLeftCell="L1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="V33" sqref="V33"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D9" sqref="C9:H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/lib/SAILFormat.xlsx
+++ b/lib/SAILFormat.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ayash\Sailproj\SailProjGit\SAILcode\lib\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B978DA6E-2061-4A45-BB6D-26D177002986}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B37F14AF-6CE6-4BC9-ACB7-3F68441DEACA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="522" xr2:uid="{93DD1A3E-79F5-40A0-9DE4-B4C0229D9C52}"/>
   </bookViews>
@@ -901,6 +901,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -924,9 +927,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1254,8 +1254,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7758D255-7225-412E-BCCB-5D6A66A51808}">
   <dimension ref="A2:V43"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D9" sqref="C9:H9"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="O33" sqref="O33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1322,16 +1322,16 @@
       <c r="F7" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="G7" s="83" t="s">
+      <c r="G7" s="84" t="s">
         <v>9</v>
       </c>
-      <c r="H7" s="83"/>
+      <c r="H7" s="84"/>
       <c r="I7" s="39" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B8" s="80" t="s">
+      <c r="B8" s="81" t="s">
         <v>21</v>
       </c>
       <c r="C8" s="14" t="s">
@@ -1359,7 +1359,7 @@
       </c>
     </row>
     <row r="9" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B9" s="80"/>
+      <c r="B9" s="81"/>
       <c r="C9" s="14" t="s">
         <v>12</v>
       </c>
@@ -1385,7 +1385,7 @@
       </c>
     </row>
     <row r="10" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B10" s="80"/>
+      <c r="B10" s="81"/>
       <c r="C10" s="14" t="s">
         <v>13</v>
       </c>
@@ -1411,7 +1411,7 @@
       </c>
     </row>
     <row r="11" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B11" s="80"/>
+      <c r="B11" s="81"/>
       <c r="C11" s="14" t="s">
         <v>17</v>
       </c>
@@ -1437,7 +1437,7 @@
       </c>
     </row>
     <row r="12" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B12" s="80"/>
+      <c r="B12" s="81"/>
       <c r="C12" s="14" t="s">
         <v>10</v>
       </c>
@@ -1463,7 +1463,7 @@
       </c>
     </row>
     <row r="13" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="80"/>
+      <c r="B13" s="81"/>
       <c r="C13" s="16" t="s">
         <v>18</v>
       </c>
@@ -1533,8 +1533,8 @@
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B16" s="84" t="s">
+    <row r="16" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="85" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="28">
@@ -1546,7 +1546,8 @@
       <c r="E16" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="F16" s="25">
+      <c r="F16" s="25" t="b">
+        <f>TRUE()</f>
         <v>1</v>
       </c>
       <c r="G16" s="21">
@@ -1577,8 +1578,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="B17" s="84"/>
+    <row r="17" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="85"/>
       <c r="C17" s="29">
         <v>4</v>
       </c>
@@ -1588,7 +1589,8 @@
       <c r="E17" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="F17" s="26">
+      <c r="F17" s="25" t="b">
+        <f>TRUE()</f>
         <v>1</v>
       </c>
       <c r="G17" s="2">
@@ -1620,7 +1622,7 @@
       </c>
     </row>
     <row r="18" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="84"/>
+      <c r="B18" s="85"/>
       <c r="C18" s="30">
         <v>4</v>
       </c>
@@ -1630,7 +1632,8 @@
       <c r="E18" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="F18" s="27">
+      <c r="F18" s="25" t="b">
+        <f>TRUE()</f>
         <v>1</v>
       </c>
       <c r="G18" s="8">
@@ -1661,8 +1664,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="B19" s="84" t="s">
+    <row r="19" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B19" s="85" t="s">
         <v>32</v>
       </c>
       <c r="C19" s="28">
@@ -1674,7 +1677,8 @@
       <c r="E19" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="F19" s="25">
+      <c r="F19" s="25" t="b">
+        <f>TRUE()</f>
         <v>1</v>
       </c>
       <c r="G19" s="21">
@@ -1705,8 +1709,8 @@
         <v>-4</v>
       </c>
     </row>
-    <row r="20" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="B20" s="84"/>
+    <row r="20" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B20" s="85"/>
       <c r="C20" s="29">
         <v>0</v>
       </c>
@@ -1716,7 +1720,8 @@
       <c r="E20" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="F20" s="26">
+      <c r="F20" s="25" t="b">
+        <f>TRUE()</f>
         <v>1</v>
       </c>
       <c r="G20" s="2">
@@ -1748,7 +1753,7 @@
       </c>
     </row>
     <row r="21" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="84"/>
+      <c r="B21" s="85"/>
       <c r="C21" s="45">
         <v>1</v>
       </c>
@@ -1758,7 +1763,8 @@
       <c r="E21" s="47" t="s">
         <v>22</v>
       </c>
-      <c r="F21" s="47">
+      <c r="F21" s="25" t="b">
+        <f>TRUE()</f>
         <v>1</v>
       </c>
       <c r="G21" s="48">
@@ -1789,8 +1795,8 @@
         <v>-4</v>
       </c>
     </row>
-    <row r="22" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="B22" s="85" t="s">
+    <row r="22" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B22" s="86" t="s">
         <v>33</v>
       </c>
       <c r="C22" s="28">
@@ -1802,7 +1808,8 @@
       <c r="E22" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="F22" s="25">
+      <c r="F22" s="25" t="b">
+        <f>TRUE()</f>
         <v>1</v>
       </c>
       <c r="G22" s="21">
@@ -1833,8 +1840,8 @@
         <v>-6</v>
       </c>
     </row>
-    <row r="23" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="B23" s="86"/>
+    <row r="23" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B23" s="87"/>
       <c r="C23" s="29">
         <v>2</v>
       </c>
@@ -1844,7 +1851,8 @@
       <c r="E23" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="F23" s="26">
+      <c r="F23" s="25" t="b">
+        <f>TRUE()</f>
         <v>1</v>
       </c>
       <c r="G23" s="2">
@@ -1876,7 +1884,7 @@
       </c>
     </row>
     <row r="24" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="86"/>
+      <c r="B24" s="87"/>
       <c r="C24" s="30">
         <v>2</v>
       </c>
@@ -1886,7 +1894,8 @@
       <c r="E24" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="F24" s="27">
+      <c r="F24" s="25" t="b">
+        <f>TRUE()</f>
         <v>1</v>
       </c>
       <c r="G24" s="8">
@@ -1917,8 +1926,8 @@
         <v>-2</v>
       </c>
     </row>
-    <row r="25" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="B25" s="87"/>
+    <row r="25" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B25" s="88"/>
       <c r="C25" s="28">
         <v>3</v>
       </c>
@@ -1928,7 +1937,8 @@
       <c r="E25" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="F25" s="25">
+      <c r="F25" s="25" t="b">
+        <f>TRUE()</f>
         <v>1</v>
       </c>
       <c r="G25" s="21">
@@ -1959,9 +1969,9 @@
         <v>-4</v>
       </c>
     </row>
-    <row r="26" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="19"/>
-      <c r="B26" s="87"/>
+      <c r="B26" s="88"/>
       <c r="C26" s="29">
         <v>3</v>
       </c>
@@ -1971,7 +1981,8 @@
       <c r="E26" s="26" t="s">
         <v>28</v>
       </c>
-      <c r="F26" s="26">
+      <c r="F26" s="25" t="b">
+        <f>TRUE()</f>
         <v>1</v>
       </c>
       <c r="G26" s="2">
@@ -2004,7 +2015,7 @@
     </row>
     <row r="27" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A27" s="19"/>
-      <c r="B27" s="82"/>
+      <c r="B27" s="83"/>
       <c r="C27" s="29">
         <v>3</v>
       </c>
@@ -2014,7 +2025,8 @@
       <c r="E27" s="26" t="s">
         <v>29</v>
       </c>
-      <c r="F27" s="26">
+      <c r="F27" s="25" t="b">
+        <f>TRUE()</f>
         <v>1</v>
       </c>
       <c r="G27" s="2">
@@ -2046,7 +2058,7 @@
       </c>
     </row>
     <row r="28" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="B28" s="81" t="s">
+      <c r="B28" s="82" t="s">
         <v>18</v>
       </c>
       <c r="C28" s="52">
@@ -2058,7 +2070,8 @@
       <c r="E28" s="41" t="s">
         <v>30</v>
       </c>
-      <c r="F28" s="41">
+      <c r="F28" s="41" t="b">
+        <f>FALSE()</f>
         <v>0</v>
       </c>
       <c r="G28" s="42">
@@ -2090,7 +2103,7 @@
       </c>
     </row>
     <row r="29" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="B29" s="82"/>
+      <c r="B29" s="83"/>
       <c r="C29" s="29">
         <v>5</v>
       </c>
@@ -2100,7 +2113,8 @@
       <c r="E29" s="26" t="s">
         <v>31</v>
       </c>
-      <c r="F29" s="26">
+      <c r="F29" s="41" t="b">
+        <f>FALSE()</f>
         <v>0</v>
       </c>
       <c r="G29" s="2">
@@ -2241,8 +2255,8 @@
         <v>0</v>
       </c>
       <c r="O32" s="59" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
+        <f>FALSE()</f>
+        <v>0</v>
       </c>
       <c r="P32" s="59" t="b">
         <f>TRUE()</f>
@@ -2317,8 +2331,8 @@
         <v>0</v>
       </c>
       <c r="O33" s="59" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
+        <f>FALSE()</f>
+        <v>0</v>
       </c>
       <c r="P33" s="59" t="b">
         <f>TRUE()</f>
@@ -2426,7 +2440,7 @@
       </c>
     </row>
     <row r="43" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="E43" s="88"/>
+      <c r="E43" s="80"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -2447,6 +2461,23 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="3be8e3c0-2842-4b5c-b060-a331e5ce9465" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010085EDC4FCBFEAC44C90B472F1F1C900EA" ma:contentTypeVersion="14" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="e45273375250329c822a0a405177b348">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="3be8e3c0-2842-4b5c-b060-a331e5ce9465" xmlns:ns4="6b4e13fc-0909-4af8-88c8-1f82cb55b253" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="a0e1ca657407e685f067414fb59c7721" ns3:_="" ns4:_="">
     <xsd:import namespace="3be8e3c0-2842-4b5c-b060-a331e5ce9465"/>
@@ -2675,38 +2706,10 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="3be8e3c0-2842-4b5c-b060-a331e5ce9465" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{917E079B-BC71-4494-9E92-79C803C2F6BC}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1B746C5C-9FCE-47B1-9B21-C70DB5E5E0E1}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="3be8e3c0-2842-4b5c-b060-a331e5ce9465"/>
-    <ds:schemaRef ds:uri="6b4e13fc-0909-4af8-88c8-1f82cb55b253"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -2729,9 +2732,20 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1B746C5C-9FCE-47B1-9B21-C70DB5E5E0E1}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{917E079B-BC71-4494-9E92-79C803C2F6BC}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="3be8e3c0-2842-4b5c-b060-a331e5ce9465"/>
+    <ds:schemaRef ds:uri="6b4e13fc-0909-4af8-88c8-1f82cb55b253"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>